--- a/files/Updated_UAL_OJS_Quarterly_Stats_Template.xlsx
+++ b/files/Updated_UAL_OJS_Quarterly_Stats_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahfreeman/Desktop/UAL/ual_ojs_stats/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9E2C1B-B8D7-F241-A0EF-F0C18DCA35FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F3222-3988-D54E-9FDA-AF5BABBA8FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6380" windowWidth="27000" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27000" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics Report" sheetId="1" r:id="rId1"/>
@@ -926,50 +926,6 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>411448</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>352263</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186DB20F-680D-03B6-6DA7-686DE36FB568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37080" y="0"/>
-          <a:ext cx="1848310" cy="500584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
